--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G2" t="n">
         <v>1.7</v>
@@ -706,13 +706,13 @@
         <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
         <v>1.16</v>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -814,10 +814,10 @@
         <v>16.5</v>
       </c>
       <c r="J3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -838,13 +838,13 @@
         <v>1.27</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.96</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -1000,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="n">
         <v>11.5</v>
@@ -1042,7 +1042,7 @@
         <v>75</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1108,7 +1108,7 @@
         <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
         <v>4.4</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1267,7 +1267,7 @@
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA6" t="n">
         <v>38</v>
@@ -1306,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -673,7 +673,7 @@
         <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>7.2</v>
@@ -688,10 +688,10 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.89</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
@@ -703,76 +703,76 @@
         <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.86</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.73</v>
       </c>
       <c r="V2" t="n">
         <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>24</v>
       </c>
-      <c r="Z2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AI2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN2" t="n">
         <v>11</v>
       </c>
-      <c r="AD2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>13</v>
-      </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>16.5</v>
       </c>
       <c r="J3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K3" t="n">
         <v>9</v>
@@ -826,10 +826,10 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P3" t="n">
         <v>3.85</v>
@@ -838,76 +838,76 @@
         <v>1.27</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X3" t="n">
         <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AB3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC3" t="n">
         <v>21</v>
       </c>
-      <c r="AC3" t="n">
-        <v>25</v>
-      </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G5" t="n">
         <v>2.74</v>
       </c>
       <c r="H5" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I5" t="n">
         <v>2.96</v>
@@ -1117,7 +1117,7 @@
         <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
@@ -1147,10 +1147,10 @@
         <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="n">
         <v>38</v>
@@ -1174,10 +1174,10 @@
         <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1249,7 +1249,7 @@
         <v>3.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -718,7 +718,7 @@
         <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="n">
         <v>8</v>
@@ -808,7 +808,7 @@
         <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
         <v>16.5</v>
@@ -829,22 +829,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
         <v>2.08</v>
@@ -853,10 +853,10 @@
         <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="n">
         <v>75</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H4" t="n">
         <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -967,7 +967,7 @@
         <v>1.47</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
         <v>2.38</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H5" t="n">
         <v>2.92</v>
       </c>
       <c r="I5" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1108,7 +1108,7 @@
         <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
         <v>4.4</v>
@@ -1159,7 +1159,7 @@
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>44</v>
@@ -1210,7 +1210,7 @@
         <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
         <v>2.6</v>
@@ -1267,7 +1267,7 @@
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
         <v>38</v>
@@ -1291,19 +1291,19 @@
         <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
         <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -685,7 +685,7 @@
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -700,13 +700,13 @@
         <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.95</v>
@@ -805,19 +805,19 @@
         <v>1.21</v>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="I3" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>7.6</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
@@ -835,79 +835,79 @@
         <v>3.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="R3" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="S3" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="X3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA3" t="n">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AD3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="AO3" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>3.95</v>
       </c>
       <c r="H4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.24</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.26</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -964,7 +964,7 @@
         <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
         <v>1.68</v>
@@ -979,7 +979,7 @@
         <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
         <v>1.9</v>
@@ -1012,7 +1012,7 @@
         <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
         <v>26</v>
@@ -1021,13 +1021,13 @@
         <v>16.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK4" t="n">
         <v>60</v>
@@ -1081,7 +1081,7 @@
         <v>2.92</v>
       </c>
       <c r="I5" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1099,7 +1099,7 @@
         <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
         <v>1.72</v>
@@ -1108,16 +1108,16 @@
         <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
         <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1210,13 +1210,13 @@
         <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>2.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1246,7 +1246,7 @@
         <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>1.85</v>
@@ -1267,16 +1267,16 @@
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>12</v>
@@ -1291,22 +1291,22 @@
         <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
         <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -679,7 +679,7 @@
         <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
@@ -709,7 +709,7 @@
         <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
         <v>1.86</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G3" t="n">
         <v>1.27</v>
@@ -817,7 +817,7 @@
         <v>7.6</v>
       </c>
       <c r="K3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
@@ -856,58 +856,58 @@
         <v>4.7</v>
       </c>
       <c r="X3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD3" t="n">
         <v>60</v>
       </c>
       <c r="AE3" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>36</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="AO3" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>3.95</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -964,13 +964,13 @@
         <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
         <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
@@ -979,7 +979,7 @@
         <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.9</v>
@@ -1084,7 +1084,7 @@
         <v>2.96</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>3.4</v>
@@ -1117,7 +1117,7 @@
         <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
         <v>2.6</v>
@@ -1237,7 +1237,7 @@
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
         <v>2.16</v>
@@ -1246,7 +1246,7 @@
         <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
         <v>1.85</v>
@@ -1270,7 +1270,7 @@
         <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
         <v>1.7</v>
@@ -685,7 +685,7 @@
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,22 +697,22 @@
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.89</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.93</v>
       </c>
       <c r="R2" t="n">
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
         <v>1.16</v>
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G3" t="n">
         <v>1.27</v>
       </c>
       <c r="H3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="Q3" t="n">
         <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
@@ -859,7 +859,7 @@
         <v>60</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
         <v>170</v>
@@ -871,7 +871,7 @@
         <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
         <v>60</v>
@@ -880,34 +880,34 @@
         <v>190</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
         <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
         <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G4" t="n">
         <v>3.95</v>
@@ -946,13 +946,13 @@
         <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG4" t="n">
         <v>16.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
         <v>50</v>
@@ -1042,7 +1042,7 @@
         <v>75</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>2.76</v>
       </c>
       <c r="H5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I5" t="n">
         <v>2.96</v>
@@ -1099,16 +1099,16 @@
         <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
         <v>4.4</v>
@@ -1132,10 +1132,10 @@
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
         <v>9.6</v>
@@ -1147,7 +1147,7 @@
         <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1159,16 +1159,16 @@
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
         <v>44</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>160</v>
@@ -1213,10 +1213,10 @@
         <v>3.25</v>
       </c>
       <c r="H6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.64</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1237,7 +1237,7 @@
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
         <v>2.16</v>
@@ -1246,7 +1246,7 @@
         <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>1.85</v>
@@ -1288,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>3.9</v>
@@ -685,7 +685,7 @@
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,28 +697,28 @@
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB2" t="n">
         <v>8</v>
@@ -754,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -766,13 +766,13 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
         <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G3" t="n">
         <v>1.27</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q3" t="n">
         <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
         <v>1.76</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
@@ -856,16 +856,16 @@
         <v>4.7</v>
       </c>
       <c r="X3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="n">
         <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA3" t="n">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="AB3" t="n">
         <v>17.5</v>
@@ -877,7 +877,7 @@
         <v>60</v>
       </c>
       <c r="AE3" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="n">
         <v>14.5</v>
@@ -892,22 +892,22 @@
         <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="AO3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
         <v>3.95</v>
@@ -955,7 +955,7 @@
         <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -985,28 +985,28 @@
         <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
@@ -1015,10 +1015,10 @@
         <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
         <v>22</v>
@@ -1027,22 +1027,22 @@
         <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
         <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1099,13 @@
         <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
@@ -1147,7 +1147,7 @@
         <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1237,7 +1237,7 @@
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
         <v>2.16</v>
@@ -1246,7 +1246,7 @@
         <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
         <v>1.85</v>
@@ -1291,10 +1291,10 @@
         <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
@@ -697,19 +697,19 @@
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
         <v>1.9</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H3" t="n">
         <v>11.5</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
@@ -844,7 +844,7 @@
         <v>1.76</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
         <v>2.12</v>
@@ -883,7 +883,7 @@
         <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
         <v>30</v>
@@ -946,28 +946,28 @@
         <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>
@@ -979,16 +979,16 @@
         <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X4" t="n">
         <v>9.800000000000001</v>
@@ -1006,7 +1006,7 @@
         <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.94</v>
@@ -1087,10 +1087,10 @@
         <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1102,10 +1102,10 @@
         <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
@@ -1120,64 +1120,64 @@
         <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AB5" t="n">
         <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1225,7 @@
         <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1237,7 +1237,7 @@
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
         <v>2.16</v>
@@ -1255,64 +1255,64 @@
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
         <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -679,13 +679,13 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,10 +697,10 @@
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
         <v>1.35</v>
@@ -718,7 +718,7 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -964,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
         <v>1.67</v>
@@ -976,10 +976,10 @@
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.89</v>
@@ -994,7 +994,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z4" t="n">
         <v>12.5</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.94</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.96</v>
       </c>
       <c r="J5" t="n">
         <v>3.3</v>
@@ -1090,7 +1090,7 @@
         <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1102,7 +1102,7 @@
         <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
         <v>2.32</v>
@@ -1117,13 +1117,13 @@
         <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
         <v>1.51</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X5" t="n">
         <v>10.5</v>
@@ -1141,7 +1141,7 @@
         <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1313,6 +1313,141 @@
       </c>
       <c r="AO6" t="n">
         <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -670,13 +670,13 @@
         <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -700,49 +700,49 @@
         <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
         <v>9.800000000000001</v>
@@ -751,13 +751,13 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
         <v>19</v>
@@ -766,13 +766,13 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN2" t="n">
         <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -832,19 +832,19 @@
         <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S3" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
         <v>2.12</v>
@@ -859,7 +859,7 @@
         <v>55</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="Z3" t="n">
         <v>160</v>
@@ -874,13 +874,13 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
         <v>180</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
@@ -892,10 +892,10 @@
         <v>120</v>
       </c>
       <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
         <v>14</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
@@ -946,13 +946,13 @@
         <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -979,25 +979,25 @@
         <v>4.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
         <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y4" t="n">
         <v>7.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>29</v>
@@ -1018,7 +1018,7 @@
         <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH4" t="n">
         <v>22</v>
@@ -1027,16 +1027,16 @@
         <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
         <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
         <v>70</v>
@@ -1099,13 +1099,13 @@
         <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
         <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
@@ -1114,7 +1114,7 @@
         <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
         <v>1.98</v>
@@ -1159,7 +1159,7 @@
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>44</v>
@@ -1171,7 +1171,7 @@
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
         <v>34</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="O7" t="n">
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1393,7 +1393,7 @@
         <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,70 +667,70 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
         <v>1.67</v>
       </c>
       <c r="H2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I2" t="n">
         <v>6.2</v>
       </c>
-      <c r="I2" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
         <v>2.48</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
         <v>8.199999999999999</v>
@@ -739,40 +739,40 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G3" t="n">
         <v>1.26</v>
@@ -811,61 +811,61 @@
         <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="S3" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X3" t="n">
         <v>55</v>
       </c>
       <c r="Y3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA3" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="AB3" t="n">
         <v>17.5</v>
@@ -874,46 +874,46 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK3" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
         <v>2.98</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Vysocina Jihlava</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>610</v>
       </c>
       <c r="H4" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>870</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>1.17</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.9</v>
+        <v>1.17</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>610</v>
       </c>
       <c r="H5" t="n">
-        <v>2.92</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.94</v>
+        <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>1.13</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>1.13</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>610</v>
       </c>
       <c r="H6" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>870</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>1.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>1.17</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,801 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.49</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.84</v>
+        <v>970</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1.09</v>
       </c>
       <c r="I7" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X7" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Plzen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G8" t="n">
+        <v>610</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I8" t="n">
+        <v>870</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K8" t="n">
+        <v>950</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X8" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.31</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
+      <c r="S11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -667,85 +667,85 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
         <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF2" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -754,25 +754,25 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO2" t="n">
         <v>150</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
@@ -826,28 +826,28 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
         <v>1.08</v>
@@ -868,13 +868,13 @@
         <v>410</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="n">
         <v>160</v>
@@ -898,16 +898,16 @@
         <v>13.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="AO3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>610</v>
+        <v>800</v>
       </c>
       <c r="H4" t="n">
         <v>1.04</v>
@@ -949,7 +949,7 @@
         <v>870</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" t="n">
         <v>1.17</v>
@@ -1075,7 +1075,7 @@
         <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H5" t="n">
         <v>1.04</v>
@@ -1084,7 +1084,7 @@
         <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O5" t="n">
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q5" t="n">
         <v>1.13</v>
@@ -1210,13 +1210,13 @@
         <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="H6" t="n">
         <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G7" t="n">
+        <v>970</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I7" t="n">
+        <v>970</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.09</v>
-      </c>
-      <c r="G7" t="n">
-        <v>970</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I7" t="n">
-        <v>970</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.03</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.18</v>
@@ -1480,7 +1480,7 @@
         <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H8" t="n">
         <v>1.04</v>
@@ -1489,7 +1489,7 @@
         <v>870</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1504,19 +1504,19 @@
         <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1636,19 +1636,19 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
         <v>4.7</v>
@@ -1771,10 +1771,10 @@
         <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
         <v>1.73</v>
@@ -1792,7 +1792,7 @@
         <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
         <v>1.51</v>
@@ -1921,10 +1921,10 @@
         <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
         <v>2.12</v>
@@ -1939,7 +1939,7 @@
         <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
         <v>15.5</v>
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
         <v>20</v>
@@ -1987,7 +1987,7 @@
         <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>1.68</v>
       </c>
       <c r="G12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>5.4</v>
@@ -2032,7 +2032,7 @@
         <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -2050,13 +2050,13 @@
         <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R12" t="n">
         <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
         <v>1.89</v>
@@ -2068,7 +2068,7 @@
         <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -685,34 +685,34 @@
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
@@ -721,22 +721,22 @@
         <v>2.36</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
         <v>7.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>23</v>
@@ -745,31 +745,31 @@
         <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
         <v>150</v>
@@ -811,7 +811,7 @@
         <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -826,13 +826,13 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
         <v>1.31</v>
@@ -844,10 +844,10 @@
         <v>1.79</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>1.08</v>
@@ -859,7 +859,7 @@
         <v>55</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z3" t="n">
         <v>150</v>
@@ -868,7 +868,7 @@
         <v>410</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
         <v>21</v>
@@ -886,19 +886,19 @@
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>13.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>110</v>
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O5" t="n">
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q5" t="n">
         <v>1.13</v>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1219,7 +1219,7 @@
         <v>970</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>2.88</v>
       </c>
       <c r="Q6" t="n">
         <v>1.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="S6" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1261,10 +1261,10 @@
         <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,13 +1273,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,10 +1288,10 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1328,33 +1328,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="H7" t="n">
         <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>970</v>
+        <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1463,33 +1463,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
       <c r="H8" t="n">
         <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1504,19 +1504,19 @@
         <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1531,10 +1531,10 @@
         <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,13 +1543,13 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,10 +1558,10 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G9" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
         <v>2.28</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
@@ -1636,16 +1636,16 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P9" t="n">
         <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
@@ -1660,13 +1660,13 @@
         <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y9" t="n">
         <v>7.8</v>
@@ -1675,7 +1675,7 @@
         <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
@@ -1687,13 +1687,13 @@
         <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF9" t="n">
         <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
         <v>22</v>
@@ -1717,7 +1717,7 @@
         <v>75</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1753,10 +1753,10 @@
         <v>2.84</v>
       </c>
       <c r="H10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.94</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.96</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -1792,7 +1792,7 @@
         <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
         <v>1.51</v>
@@ -1936,7 +1936,7 @@
         <v>1.45</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
         <v>9.800000000000001</v>
@@ -2035,28 +2035,28 @@
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q12" t="n">
         <v>1.97</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
         <v>1.89</v>
@@ -2071,13 +2071,13 @@
         <v>2.24</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
         <v>190</v>
@@ -2086,22 +2086,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
         <v>100</v>
@@ -2110,16 +2110,16 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
         <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>140</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
         <v>1.73</v>
@@ -676,10 +676,10 @@
         <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -688,10 +688,10 @@
         <v>1.47</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -700,7 +700,7 @@
         <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
         <v>1.29</v>
@@ -709,16 +709,16 @@
         <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -727,10 +727,10 @@
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
         <v>7.4</v>
@@ -766,7 +766,7 @@
         <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN2" t="n">
         <v>13.5</v>
@@ -805,19 +805,19 @@
         <v>1.24</v>
       </c>
       <c r="G3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
         <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
@@ -826,7 +826,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
@@ -838,16 +838,16 @@
         <v>1.31</v>
       </c>
       <c r="R3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.18</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>1.08</v>
@@ -856,55 +856,55 @@
         <v>4.8</v>
       </c>
       <c r="X3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA3" t="n">
         <v>410</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD3" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="n">
         <v>160</v>
       </c>
       <c r="AF3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12</v>
       </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK3" t="n">
         <v>13.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="AO3" t="n">
         <v>120</v>
@@ -923,60 +923,60 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>05:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Lask Linz</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vysocina Jihlava</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="H4" t="n">
         <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -991,10 +991,10 @@
         <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1058,24 +1058,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>Vysocina Jihlava</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H5" t="n">
         <v>1.04</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.28</v>
+        <v>1.92</v>
       </c>
       <c r="O5" t="n">
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>1.28</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
         <v>1.13</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.13</v>
+        <v>2.06</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1193,33 +1193,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="H6" t="n">
         <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>970</v>
+        <v>870</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="O6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.18</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.76</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1261,10 +1261,10 @@
         <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,13 +1273,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,10 +1288,10 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1328,24 +1328,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="H7" t="n">
         <v>1.04</v>
@@ -1354,7 +1354,7 @@
         <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1369,19 +1369,19 @@
         <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1463,17 +1463,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.02</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>2.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.18</v>
+        <v>1.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.17</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1531,10 +1531,10 @@
         <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,13 +1543,13 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,10 +1558,10 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>610</v>
       </c>
       <c r="H9" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>2.32</v>
+        <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.98</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>4.7</v>
+        <v>1.05</v>
       </c>
       <c r="T9" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.84</v>
+        <v>970</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>2.94</v>
+        <v>870</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>1.23</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.32</v>
+        <v>1.18</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>1.18</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,260 +1868,935 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>600</v>
       </c>
       <c r="H11" t="n">
-        <v>2.64</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.66</v>
+        <v>870</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>1.82</v>
+        <v>1.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>1.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>1.14</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Puskas Akademia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G12" t="n">
+        <v>970</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>970</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K12" t="n">
+        <v>950</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>610</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>870</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K13" t="n">
+        <v>950</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X13" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Portuguese Segunda Liga</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Vizela</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Pacos Ferreira</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F17" t="n">
         <v>1.68</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G17" t="n">
         <v>1.8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H17" t="n">
         <v>5.4</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I17" t="n">
         <v>6.6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J17" t="n">
         <v>3.6</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K17" t="n">
         <v>4.2</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L17" t="n">
         <v>1.4</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.45</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O17" t="n">
         <v>1.32</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P17" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q17" t="n">
         <v>1.97</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R17" t="n">
         <v>1.32</v>
       </c>
-      <c r="S12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="S17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.89</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U17" t="n">
         <v>1.89</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V17" t="n">
         <v>1.17</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W17" t="n">
         <v>2.24</v>
       </c>
-      <c r="X12" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
         <v>980</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z17" t="n">
         <v>980</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA17" t="n">
         <v>190</v>
       </c>
-      <c r="AB12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AB17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC17" t="n">
         <v>10</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD17" t="n">
         <v>980</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE17" t="n">
         <v>100</v>
       </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AF17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK17" t="n">
         <v>980</v>
       </c>
-      <c r="AI12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AL17" t="n">
         <v>980</v>
       </c>
-      <c r="AL12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AM17" t="n">
         <v>150</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN17" t="n">
         <v>14</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO17" t="n">
         <v>140</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -667,52 +667,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
         <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
@@ -721,28 +721,28 @@
         <v>2.34</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AF2" t="n">
         <v>9.199999999999999</v>
@@ -760,16 +760,16 @@
         <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
         <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>150</v>
@@ -808,16 +808,16 @@
         <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
         <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="K3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
@@ -844,70 +844,70 @@
         <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
         <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="n">
         <v>140</v>
       </c>
       <c r="AA3" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="n">
         <v>160</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
         <v>11.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -949,7 +949,7 @@
         <v>970</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>970</v>
@@ -958,19 +958,19 @@
         <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
-        <v>800</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>870</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.92</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1219,34 +1219,34 @@
         <v>870</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>2.42</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1501,19 +1501,19 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>2.94</v>
       </c>
       <c r="O8" t="n">
         <v>1.02</v>
       </c>
       <c r="P8" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="S8" t="n">
         <v>2.02</v>
@@ -1615,7 +1615,7 @@
         <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H9" t="n">
         <v>1.04</v>
@@ -1624,7 +1624,7 @@
         <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>2.7</v>
       </c>
       <c r="K9" t="n">
         <v>950</v>
@@ -1633,25 +1633,25 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
         <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1759,7 +1759,7 @@
         <v>870</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -1771,22 +1771,22 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="O10" t="n">
         <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="R10" t="n">
         <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1807,7 +1807,7 @@
         <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1846,7 +1846,7 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1906,16 +1906,16 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="R11" t="n">
         <v>1.18</v>
@@ -2044,19 +2044,19 @@
         <v>1.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
         <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
@@ -2311,25 +2311,25 @@
         <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
         <v>1.9</v>
@@ -2338,10 +2338,10 @@
         <v>1.76</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X14" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y14" t="n">
         <v>7.8</v>
@@ -2356,7 +2356,7 @@
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>11.5</v>
@@ -2365,7 +2365,7 @@
         <v>28</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
         <v>16</v>
@@ -2389,7 +2389,7 @@
         <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="n">
         <v>26</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -2455,37 +2455,37 @@
         <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z15" t="n">
         <v>17.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB15" t="n">
         <v>9.6</v>
@@ -2497,7 +2497,7 @@
         <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
         <v>17</v>
@@ -2506,13 +2506,13 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
         <v>36</v>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G16" t="n">
         <v>3.2</v>
       </c>
       <c r="H16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I16" t="n">
         <v>2.62</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.66</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
@@ -2584,28 +2584,28 @@
         <v>3.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
         <v>2.16</v>
       </c>
       <c r="R16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>1.45</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="H17" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="I17" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.4</v>
@@ -2716,40 +2716,40 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
         <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>980</v>
@@ -2761,7 +2761,7 @@
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
         <v>980</v>
@@ -2770,19 +2770,19 @@
         <v>100</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
         <v>100</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>140</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.71</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.74</v>
-      </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.38</v>
@@ -700,25 +700,25 @@
         <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
         <v>2.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -730,13 +730,13 @@
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
         <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>23</v>
@@ -757,10 +757,10 @@
         <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
         <v>44</v>
@@ -769,7 +769,7 @@
         <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
         <v>150</v>
@@ -802,85 +802,85 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J3" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q3" t="n">
         <v>1.31</v>
       </c>
       <c r="R3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S3" t="n">
         <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X3" t="n">
         <v>60</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z3" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA3" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="n">
         <v>160</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -889,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
         <v>11.5</v>
@@ -901,13 +901,13 @@
         <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>2.24</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
@@ -970,7 +970,7 @@
         <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -979,7 +979,7 @@
         <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
@@ -988,10 +988,10 @@
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
         <v>5.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R5" t="n">
         <v>1.92</v>
       </c>
       <c r="S5" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="U5" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,19 +1153,19 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,94 +1207,94 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>7.6</v>
       </c>
       <c r="G6" t="n">
-        <v>600</v>
+        <v>11.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="I6" t="n">
-        <v>870</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.42</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,55 +1333,55 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="G7" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="I7" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>2.7</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.25</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.24</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.06</v>
+        <v>1.69</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="S7" t="n">
-        <v>1.06</v>
+        <v>1.76</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1390,10 +1390,10 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
         <v>970</v>
@@ -1402,25 +1402,25 @@
         <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB7" t="n">
         <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG7" t="n">
         <v>970</v>
@@ -1429,31 +1429,31 @@
         <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,28 +1468,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>970</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>970</v>
+        <v>870</v>
       </c>
       <c r="J8" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.94</v>
+        <v>1.32</v>
       </c>
       <c r="O8" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92</v>
+        <v>1.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1537,7 +1537,7 @@
         <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1576,10 +1576,10 @@
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,19 +1603,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="H9" t="n">
         <v>1.04</v>
@@ -1624,7 +1624,7 @@
         <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>2.7</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
         <v>950</v>
@@ -1633,25 +1633,25 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="P9" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>1.76</v>
+        <v>1.05</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="G10" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>2.06</v>
       </c>
       <c r="I10" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,34 +1771,34 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.28</v>
+        <v>2.94</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="P10" t="n">
-        <v>1.28</v>
+        <v>2.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="R10" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="S10" t="n">
-        <v>1.28</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1807,32 +1807,32 @@
         <v>970</v>
       </c>
       <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH10" t="n">
         <v>500</v>
       </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>970</v>
-      </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>RZ Pellets WAC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="H11" t="n">
         <v>1.04</v>
@@ -1894,7 +1894,7 @@
         <v>870</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
         <v>950</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="R11" t="n">
         <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="G12" t="n">
         <v>970</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="I12" t="n">
         <v>970</v>
       </c>
       <c r="J12" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,22 +2041,22 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2065,16 +2065,16 @@
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,13 +2083,13 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,10 +2098,10 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="G13" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="I13" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2179,37 +2179,37 @@
         <v>1.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
         <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="T13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U13" t="n">
         <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,13 +2218,13 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2233,10 +2233,10 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.85</v>
+        <v>1.36</v>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>970</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>2.98</v>
       </c>
       <c r="I14" t="n">
-        <v>2.32</v>
+        <v>970</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>970</v>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>1.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.44</v>
+        <v>1.17</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>1.16</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.76</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>42</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AK14" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,30 +2408,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="G15" t="n">
-        <v>2.82</v>
+        <v>3.85</v>
       </c>
       <c r="H15" t="n">
-        <v>2.94</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.96</v>
+        <v>2.32</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -2440,100 +2440,100 @@
         <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
         <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AO15" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
         <v>3.15</v>
       </c>
-      <c r="G16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.5</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>38</v>
       </c>
-      <c r="AB16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>30</v>
-      </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
         <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,261 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.63</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>1.71</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
-        <v>5.9</v>
+        <v>2.64</v>
       </c>
       <c r="I17" t="n">
-        <v>7.2</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
         <v>3.55</v>
       </c>
       <c r="O17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.32</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="Q18" t="n">
         <v>1.94</v>
       </c>
-      <c r="U17" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>140</v>
+      <c r="R18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -667,79 +667,79 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>170</v>
@@ -748,31 +748,31 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="G3" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="I3" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P3" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.18</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA3" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="n">
         <v>160</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>12</v>
       </c>
-      <c r="AH3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>590</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1.39</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -970,7 +970,7 @@
         <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1099,34 +1099,34 @@
         <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
         <v>1.92</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U5" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>46</v>
       </c>
       <c r="AC5" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
         <v>55</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
         <v>44</v>
@@ -1165,7 +1165,7 @@
         <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
         <v>600</v>
@@ -1213,7 +1213,7 @@
         <v>11.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I6" t="n">
         <v>1.45</v>
@@ -1222,37 +1222,37 @@
         <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="R6" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
         <v>3.2</v>
@@ -1261,40 +1261,40 @@
         <v>1.09</v>
       </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF6" t="n">
         <v>110</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,7 +1303,7 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="7">
@@ -1342,73 +1342,73 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="G7" t="n">
-        <v>970</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.48</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>970</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.69</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
         <v>1.13</v>
       </c>
       <c r="S7" t="n">
-        <v>1.76</v>
+        <v>6.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>5.6</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
@@ -1417,13 +1417,13 @@
         <v>970</v>
       </c>
       <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>500</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>970</v>
       </c>
       <c r="AH7" t="n">
         <v>970</v>
@@ -1432,10 +1432,10 @@
         <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
@@ -1444,10 +1444,10 @@
         <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,76 +1477,76 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H8" t="n">
         <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>870</v>
+        <v>110</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>17.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>1.32</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>1.32</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="V8" t="n">
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="n">
         <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AD8" t="n">
         <v>970</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>970</v>
@@ -1567,19 +1567,19 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
         <v>750</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>610</v>
+        <v>1.31</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>870</v>
+        <v>16.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>5.7</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.06</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>110</v>
+        <v>2.24</v>
       </c>
       <c r="H10" t="n">
-        <v>2.06</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>970</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>970</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.94</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="R10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.46</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1813,13 +1813,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1840,16 +1840,16 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="G11" t="n">
-        <v>610</v>
+        <v>1.71</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>870</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>1.2</v>
+        <v>2.28</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="X11" t="n">
         <v>970</v>
@@ -1942,7 +1942,7 @@
         <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1957,37 +1957,37 @@
         <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.51</v>
+        <v>1.74</v>
       </c>
       <c r="G12" t="n">
-        <v>970</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>970</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>500</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2044,31 +2044,31 @@
         <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>1.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>1.15</v>
+        <v>2.04</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.02</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2095,19 +2095,19 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2179,19 +2179,19 @@
         <v>1.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
         <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T13" t="n">
         <v>1.05</v>
@@ -2431,7 +2431,7 @@
         <v>2.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -2449,7 +2449,7 @@
         <v>3.05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
         <v>1.69</v>
@@ -2461,7 +2461,7 @@
         <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
         <v>2.04</v>
@@ -2470,13 +2470,13 @@
         <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
         <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -2566,7 +2566,7 @@
         <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
@@ -2587,7 +2587,7 @@
         <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q16" t="n">
         <v>2.32</v>
@@ -2629,7 +2629,7 @@
         <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>38</v>
@@ -2710,10 +2710,10 @@
         <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
         <v>3.55</v>
@@ -2722,13 +2722,13 @@
         <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -2746,10 +2746,10 @@
         <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z17" t="n">
         <v>15.5</v>
@@ -2758,7 +2758,7 @@
         <v>38</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
@@ -2797,7 +2797,7 @@
         <v>36</v>
       </c>
       <c r="AO17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H18" t="n">
         <v>5.8</v>
@@ -2842,7 +2842,7 @@
         <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.38</v>
@@ -2860,13 +2860,13 @@
         <v>1.87</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
         <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
         <v>1.94</v>
@@ -2878,13 +2878,13 @@
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
@@ -2893,22 +2893,22 @@
         <v>210</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>46</v>
       </c>
       <c r="AE18" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>970</v>
@@ -2923,7 +2923,7 @@
         <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.69</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>2.96</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>2.92</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.93</v>
+        <v>1.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>2.04</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>1.16</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>3.05</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>3.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>170</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="H3" t="n">
+        <v>120</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>70</v>
+      </c>
+      <c r="K3" t="n">
+        <v>120</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AL3" t="n">
         <v>13.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>480</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AM3" t="n">
         <v>120</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>590</v>
-      </c>
       <c r="AN3" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="n">
-        <v>1.39</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>990</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="V4" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,46 +1003,46 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="R5" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="U5" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,16 +1138,16 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD5" t="n">
         <v>55</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AF5" t="n">
         <v>36</v>
@@ -1159,25 +1159,25 @@
         <v>44</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="I6" t="n">
         <v>1.45</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.19</v>
@@ -1240,16 +1240,16 @@
         <v>2.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
         <v>1.89</v>
@@ -1258,25 +1258,25 @@
         <v>3.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
         <v>11.5</v>
@@ -1285,7 +1285,7 @@
         <v>15.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>38</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
@@ -1342,88 +1342,88 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="P7" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="R7" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="U7" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
         <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.6</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
         <v>970</v>
@@ -1432,10 +1432,10 @@
         <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
@@ -1444,7 +1444,7 @@
         <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>600</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="G8" t="n">
         <v>1.1</v>
       </c>
       <c r="H8" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I8" t="n">
         <v>110</v>
       </c>
       <c r="J8" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="V8" t="n">
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
         <v>970</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
         <v>44</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH8" t="n">
         <v>970</v>
@@ -1567,19 +1567,19 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AM8" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G9" t="n">
         <v>1.31</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K9" t="n">
         <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1639,28 +1639,28 @@
         <v>1.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P9" t="n">
         <v>3.15</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R9" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="T9" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
         <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W9" t="n">
         <v>4.2</v>
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G10" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J10" t="n">
         <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.16</v>
@@ -1780,22 +1780,22 @@
         <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
         <v>1.73</v>
       </c>
       <c r="S10" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="U10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W10" t="n">
         <v>1.84</v>
@@ -1831,7 +1831,7 @@
         <v>40</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1840,7 +1840,7 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G11" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
         <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="X11" t="n">
         <v>970</v>
@@ -1984,7 +1984,7 @@
         <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO11" t="n">
         <v>70</v>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
         <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="T12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2077,7 +2077,7 @@
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2101,13 +2101,13 @@
         <v>120</v>
       </c>
       <c r="AH12" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.98</v>
+        <v>2.78</v>
       </c>
       <c r="G13" t="n">
-        <v>970</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="I13" t="n">
-        <v>970</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>500</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>1.25</v>
+        <v>5.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>2.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.19</v>
+        <v>1.51</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="S13" t="n">
-        <v>1.18</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.05</v>
+        <v>1.48</v>
       </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="G14" t="n">
-        <v>970</v>
+        <v>1.56</v>
       </c>
       <c r="H14" t="n">
-        <v>2.98</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>970</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>1.25</v>
+        <v>5.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="S14" t="n">
-        <v>1.16</v>
+        <v>2.32</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AH14" t="n">
         <v>970</v>
@@ -2377,19 +2377,19 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>500</v>
+        <v>5.9</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2440,7 +2440,7 @@
         <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
@@ -2452,16 +2452,16 @@
         <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
         <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
         <v>2.04</v>
@@ -2476,7 +2476,7 @@
         <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -2497,13 +2497,13 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2512,7 +2512,7 @@
         <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="n">
         <v>60</v>
@@ -2524,7 +2524,7 @@
         <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AO15" t="n">
         <v>26</v>
@@ -2566,7 +2566,7 @@
         <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
@@ -2575,7 +2575,7 @@
         <v>3.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -2587,22 +2587,22 @@
         <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V16" t="n">
         <v>1.51</v>
@@ -2617,13 +2617,13 @@
         <v>9.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC16" t="n">
         <v>7.2</v>
@@ -2635,13 +2635,13 @@
         <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
@@ -2710,34 +2710,34 @@
         <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T17" t="n">
         <v>1.84</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
         <v>1.6</v>
@@ -2746,19 +2746,19 @@
         <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
         <v>38</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
@@ -2767,37 +2767,37 @@
         <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
         <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
         <v>55</v>
       </c>
       <c r="AK17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
         <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
         <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AB18" t="n">
         <v>8</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>46</v>
       </c>
       <c r="AE18" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
         <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="AN18" t="n">
         <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>540</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:06:00</t>
+          <t>05:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Lask Linz</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>1.94</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>110</v>
       </c>
       <c r="H2" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.96</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>3.05</v>
+        <v>36</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>2.92</v>
+        <v>5.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>13</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.05</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,75 +788,75 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Vysocina Jihlava</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.02</v>
       </c>
-      <c r="H3" t="n">
-        <v>120</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>70</v>
-      </c>
-      <c r="K3" t="n">
-        <v>120</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>50</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.55</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.65</v>
+        <v>5.4</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lask Linz</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>11.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>1.35</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>1.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="R4" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
-        <v>2.46</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>3.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="5">
@@ -1058,78 +1058,78 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vysocina Jihlava</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>1.21</v>
       </c>
       <c r="G5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.94</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="V5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W5" t="n">
         <v>4.4</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>55</v>
       </c>
       <c r="AE5" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1193,108 +1193,108 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.800000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.36</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.45</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K6" t="n">
         <v>5</v>
       </c>
-      <c r="K6" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>2.7</v>
       </c>
       <c r="V6" t="n">
-        <v>3.2</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,16 +1303,16 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1360,7 +1360,7 @@
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
@@ -1369,19 +1369,19 @@
         <v>2.46</v>
       </c>
       <c r="O7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P7" t="n">
         <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="R7" t="n">
         <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="T7" t="n">
         <v>2.48</v>
@@ -1408,7 +1408,7 @@
         <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG7" t="n">
         <v>40</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G8" t="n">
         <v>1.1</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I8" t="n">
         <v>110</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
@@ -1501,25 +1501,25 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="R8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
         <v>1.26</v>
@@ -1528,7 +1528,7 @@
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X8" t="n">
         <v>40</v>
@@ -1564,13 +1564,13 @@
         <v>970</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="AJ8" t="n">
         <v>6.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
         <v>180</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>RZ Pellets WAC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="G9" t="n">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="I9" t="n">
-        <v>15.5</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1.81</v>
+        <v>2.34</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>4.2</v>
+        <v>2.44</v>
       </c>
       <c r="X9" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.35</v>
+        <v>7.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1733,75 +1733,75 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="n">
         <v>970</v>
@@ -1813,22 +1813,22 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AH10" t="n">
         <v>60</v>
@@ -1837,10 +1837,10 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RZ Pellets WAC</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>2.84</v>
       </c>
       <c r="G11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.69</v>
       </c>
-      <c r="H11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.16</v>
-      </c>
       <c r="W11" t="n">
-        <v>2.46</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.8</v>
+        <v>18</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="12">
@@ -2003,87 +2003,87 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.84</v>
+        <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
       </c>
       <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
         <v>500</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>970</v>
       </c>
       <c r="AC12" t="n">
         <v>42</v>
@@ -2095,31 +2095,31 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>160</v>
+        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>5.3</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.78</v>
+        <v>3.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="H13" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.42</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.51</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>2.28</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="U13" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16</v>
-      </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.45</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="P14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.26</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S14" t="n">
-        <v>2.32</v>
+        <v>4.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.14</v>
+        <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.9</v>
+        <v>38</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2408,30 +2408,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="I15" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -2440,100 +2440,100 @@
         <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="X15" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO15" t="n">
         <v>27</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,396 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.82</v>
+        <v>1.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.84</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>2.92</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.94</v>
+        <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="T16" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U16" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.54</v>
+        <v>2.28</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.6</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AA16" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
         <v>19</v>
       </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>36</v>
-      </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM17" t="n">
         <v>100</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Pacos Ferreira</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="G2" t="n">
-        <v>110</v>
+        <v>1.06</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>350</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="n">
-        <v>36</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>2.06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.04</v>
+        <v>10.5</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -745,22 +745,22 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="J3" t="n">
         <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.21</v>
@@ -826,85 +826,85 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="R3" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="T3" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="U3" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X3" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
         <v>970</v>
       </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>46</v>
-      </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AD3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -943,61 +943,61 @@
         <v>11.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="I4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.32</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.46</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.1</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z4" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9.6</v>
       </c>
       <c r="AA4" t="n">
         <v>12.5</v>
@@ -1006,10 +1006,10 @@
         <v>38</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>15.5</v>
@@ -1021,7 +1021,7 @@
         <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>36</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="G5" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="H5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K5" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1099,37 +1099,37 @@
         <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q5" t="n">
         <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="X5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y5" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AD5" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,28 +1153,28 @@
         <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
         <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S6" t="n">
         <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1279,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,10 +1288,10 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
         <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
@@ -1363,43 +1363,43 @@
         <v>1.67</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S7" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="T7" t="n">
         <v>2.48</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V7" t="n">
         <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>80</v>
@@ -1408,10 +1408,10 @@
         <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
@@ -1420,13 +1420,13 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>500</v>
@@ -1483,46 +1483,46 @@
         <v>1.1</v>
       </c>
       <c r="H8" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J8" t="n">
         <v>11.5</v>
       </c>
       <c r="K8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="V8" t="n">
         <v>1.01</v>
@@ -1612,28 +1612,28 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>4.9</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.26</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>5.3</v>
@@ -1645,25 +1645,25 @@
         <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="S9" t="n">
         <v>2.34</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
         <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1672,7 +1672,7 @@
         <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,25 +1681,25 @@
         <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AF9" t="n">
         <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
         <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
         <v>970</v>
@@ -1711,10 +1711,10 @@
         <v>970</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>70</v>
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>5</v>
@@ -1780,34 +1780,34 @@
         <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="X10" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="n">
         <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,16 +1816,16 @@
         <v>38</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AG10" t="n">
         <v>120</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
         <v>65</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1894,10 +1894,10 @@
         <v>2.44</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.26</v>
@@ -1906,25 +1906,25 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>2.22</v>
       </c>
       <c r="T11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U11" t="n">
         <v>2.62</v>
@@ -1933,13 +1933,13 @@
         <v>1.69</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
         <v>21</v>
@@ -1951,22 +1951,22 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>34</v>
@@ -1984,7 +1984,7 @@
         <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO11" t="n">
         <v>10.5</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G12" t="n">
         <v>1.51</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>4.7</v>
@@ -2035,7 +2035,7 @@
         <v>6.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2047,31 +2047,31 @@
         <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="S12" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W12" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X12" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
@@ -2095,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>500</v>
       </c>
       <c r="AG12" t="n">
         <v>95</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
         <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.53</v>
@@ -2182,28 +2182,28 @@
         <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R13" t="n">
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T13" t="n">
         <v>2.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
         <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X13" t="n">
         <v>9.800000000000001</v>
@@ -2242,19 +2242,19 @@
         <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
         <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="n">
         <v>26</v>
@@ -2290,10 +2290,10 @@
         <v>2.86</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I14" t="n">
         <v>2.9</v>
@@ -2317,10 +2317,10 @@
         <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R14" t="n">
         <v>1.26</v>
@@ -2338,13 +2338,13 @@
         <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X14" t="n">
         <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
@@ -2371,13 +2371,13 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="n">
         <v>36</v>
@@ -2392,7 +2392,7 @@
         <v>38</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
         <v>1.47</v>
@@ -2449,34 +2449,34 @@
         <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
         <v>3.85</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
         <v>10.5</v>
@@ -2485,7 +2485,7 @@
         <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
@@ -2497,16 +2497,16 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>42</v>
@@ -2521,13 +2521,13 @@
         <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -2560,25 +2560,25 @@
         <v>1.7</v>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
         <v>3.55</v>
@@ -2602,10 +2602,10 @@
         <v>1.94</v>
       </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W16" t="n">
         <v>2.28</v>
@@ -2614,13 +2614,13 @@
         <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="n">
         <v>8</v>
@@ -2632,28 +2632,28 @@
         <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF16" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH16" t="n">
         <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
@@ -2662,7 +2662,7 @@
         <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>100</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lask Linz</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Vysocina Jihlava</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="G2" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="I2" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>840</v>
+        <v>7.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.16</v>
+        <v>1.61</v>
       </c>
       <c r="R2" t="n">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.02</v>
+        <v>1.74</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,46 +733,46 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF2" t="n">
-        <v>550</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>760</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>870</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ2" t="n">
-        <v>780</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN2" t="n">
-        <v>990</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
@@ -788,75 +788,75 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vysocina Jihlava</t>
+          <t>AP Brera Strumica</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="G3" t="n">
-        <v>1.76</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>970</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>2.82</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>1.29</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.38</v>
+        <v>1.03</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.03</v>
       </c>
       <c r="T3" t="n">
-        <v>1.47</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,31 +880,31 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -928,103 +928,103 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>Maritsa Plodiv</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>1.41</v>
       </c>
       <c r="H4" t="n">
-        <v>1.34</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9</v>
+        <v>1.68</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.62</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>1.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.17</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.22</v>
+        <v>9.6</v>
       </c>
       <c r="H5" t="n">
-        <v>8.199999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>1.44</v>
       </c>
       <c r="J5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K5" t="n">
         <v>6.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD5" t="n">
         <v>11</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH5" t="n">
         <v>25</v>
       </c>
-      <c r="AD5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>42</v>
-      </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>290</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.86</v>
+        <v>170</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="6">
@@ -1193,78 +1193,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Lask Linz</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>2.74</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.24</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.78</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.74</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>2.64</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1276,10 +1276,10 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,10 +1288,10 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
         <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
@@ -1366,16 +1366,16 @@
         <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="O7" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="R7" t="n">
         <v>1.15</v>
@@ -1384,58 +1384,58 @@
         <v>6.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
         <v>1.96</v>
       </c>
       <c r="X7" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="n">
         <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>40</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
@@ -1480,46 +1480,46 @@
         <v>1.07</v>
       </c>
       <c r="G8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H8" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
         <v>1.25</v>
@@ -1528,10 +1528,10 @@
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
         <v>970</v>
@@ -1546,7 +1546,7 @@
         <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
         <v>970</v>
@@ -1558,7 +1558,7 @@
         <v>6.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
         <v>970</v>
@@ -1567,19 +1567,19 @@
         <v>950</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RZ Pellets WAC</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>1.15</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>11.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.04</v>
       </c>
-      <c r="N9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W9" t="n">
-        <v>2.42</v>
+        <v>5.7</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="Z9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AE9" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>3.05</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1733,102 +1733,102 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="X10" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
         <v>970</v>
       </c>
       <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD10" t="n">
         <v>500</v>
       </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>38</v>
-      </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>60</v>
@@ -1837,19 +1837,19 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>RZ Pellets WAC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.84</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.06</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.44</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T11" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.69</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.39</v>
+        <v>2.42</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG11" t="n">
         <v>18</v>
       </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>16</v>
-      </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2003,81 +2003,81 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="G12" t="n">
-        <v>1.51</v>
+        <v>1.74</v>
       </c>
       <c r="H12" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="J12" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>2.96</v>
+        <v>2.32</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2086,10 +2086,10 @@
         <v>500</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,28 +2098,28 @@
         <v>500</v>
       </c>
       <c r="AG12" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>970</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.85</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>1.68</v>
+        <v>2.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.44</v>
+        <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="S13" t="n">
-        <v>4.8</v>
+        <v>2.46</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="W13" t="n">
         <v>1.34</v>
       </c>
       <c r="X13" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
         <v>30</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AG13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO13" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.86</v>
+        <v>1.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2.86</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>1.72</v>
+        <v>2.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="S14" t="n">
-        <v>4.5</v>
+        <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.52</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>1.52</v>
+        <v>2.68</v>
       </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG14" t="n">
         <v>17</v>
       </c>
-      <c r="AA14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2408,87 +2408,87 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="G15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.47</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="W15" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z15" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>16</v>
-      </c>
       <c r="AA15" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>7</v>
@@ -2500,168 +2500,438 @@
         <v>28</v>
       </c>
       <c r="AF15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>21</v>
       </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="n">
         <v>55</v>
       </c>
-      <c r="AK15" t="n">
-        <v>36</v>
-      </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Portuguese Segunda Liga</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Vizela</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Pacos Ferreira</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="F18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.8</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.08</v>
       </c>
-      <c r="N16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="N18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X18" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL18" t="n">
         <v>40</v>
       </c>
-      <c r="Z16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="n">
+      <c r="AM18" t="n">
         <v>580</v>
       </c>
-      <c r="AN16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO16" t="n">
+      <c r="AN18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO18" t="n">
         <v>540</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vysocina Jihlava</t>
+          <t>AP Brera Strumica</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="H2" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="K2" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,46 +733,46 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC2" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC2" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD2" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -793,67 +793,67 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AP Brera Strumica</t>
+          <t>Maritsa Plodiv</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>1.03</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>150</v>
       </c>
       <c r="I3" t="n">
         <v>970</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>46</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.17</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.03</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>2.36</v>
       </c>
       <c r="S3" t="n">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>1.43</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
@@ -928,67 +928,67 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Maritsa Plodiv</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>13.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>790</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>1.27</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1036,13 +1036,13 @@
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>Lask Linz</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
-        <v>9.6</v>
+        <v>490</v>
       </c>
       <c r="H5" t="n">
-        <v>1.39</v>
+        <v>1.08</v>
       </c>
       <c r="I5" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>750</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.68</v>
+        <v>1.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lask Linz</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>32</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.04</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kairouan</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.21</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>690</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>690</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.14</v>
       </c>
-      <c r="N7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.96</v>
+        <v>3.05</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.2</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>650</v>
       </c>
       <c r="AD7" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1468,109 +1468,109 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>Kairouan</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.07</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H8" t="n">
-        <v>50</v>
-      </c>
-      <c r="I8" t="n">
-        <v>110</v>
-      </c>
-      <c r="J8" t="n">
-        <v>13</v>
-      </c>
-      <c r="K8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>12.5</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="U8" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>950</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.4</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="n">
         <v>210</v>
@@ -1579,16 +1579,16 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.05</v>
+        <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,73 +1603,73 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="G9" t="n">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="H9" t="n">
-        <v>9.199999999999999</v>
+        <v>110</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K9" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.01</v>
       </c>
-      <c r="N9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.04</v>
-      </c>
       <c r="W9" t="n">
-        <v>5.7</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AD9" t="n">
-        <v>95</v>
+        <v>370</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.5</v>
+        <v>5.1</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1733,72 +1733,72 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>RZ Pellets WAC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.97</v>
+        <v>1.64</v>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
-        <v>2.68</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1807,52 +1807,52 @@
         <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AD10" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1873,82 +1873,82 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RZ Pellets WAC</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="H11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.9</v>
       </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.32</v>
       </c>
-      <c r="T11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.36</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y11" t="n">
         <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>22</v>
@@ -1957,37 +1957,37 @@
         <v>55</v>
       </c>
       <c r="AE11" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>970</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.65</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>1.74</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>1.98</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>2.16</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="W12" t="n">
-        <v>2.32</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="n">
-        <v>500</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>1.49</v>
       </c>
       <c r="G13" t="n">
-        <v>3.95</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>1.98</v>
+        <v>6.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="R13" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.86</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>1.34</v>
+        <v>2.8</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12</v>
       </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK13" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>38</v>
-      </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>5.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.58</v>
+        <v>3.95</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>2.98</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="P14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.58</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>4.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.76</v>
       </c>
       <c r="W14" t="n">
-        <v>2.68</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB14" t="n">
-        <v>500</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>80</v>
       </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>500</v>
-      </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="G15" t="n">
-        <v>3.85</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.32</v>
+        <v>2.86</v>
       </c>
       <c r="I15" t="n">
-        <v>2.34</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
         <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL15" t="n">
         <v>55</v>
       </c>
-      <c r="AL15" t="n">
-        <v>75</v>
-      </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="T16" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>17</v>
       </c>
-      <c r="AA16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AI16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK16" t="n">
         <v>38</v>
       </c>
-      <c r="AF16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>36</v>
-      </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,260 +2678,125 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.15</v>
+        <v>1.76</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>1.81</v>
       </c>
       <c r="H17" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.64</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="V17" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.45</v>
+        <v>2.22</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AA17" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>420</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Pacos Ferreira</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO18" t="n">
         <v>540</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RZ Pellets WAC</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.17</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.23</v>
+        <v>2.12</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>48</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>8.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="R3" t="n">
-        <v>2.88</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.05</v>
+        <v>490</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.4</v>
+        <v>490</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>550</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.4</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="AO3" t="n">
-        <v>410</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="G4" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>2.48</v>
+        <v>1.51</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.55</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.59</v>
-      </c>
       <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Y4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>19</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
         <v>50</v>
       </c>
-      <c r="AB4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>75</v>
-      </c>
       <c r="AM4" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>5.9</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.66</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,530 +1193,125 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="T6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.26</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X6" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB6" t="n">
         <v>7.6</v>
       </c>
-      <c r="Z6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11</v>
-      </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>22</v>
       </c>
-      <c r="AI6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>60</v>
-      </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>German Bundesliga</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Union Berlin</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Pacos Ferreira</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO9" t="n">
         <v>160</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,17 +653,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>2.12</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>2.96</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>8.800000000000001</v>
+        <v>2.24</v>
       </c>
       <c r="O3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.11</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X3" t="n">
         <v>6.2</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.4</v>
-      </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>200</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>490</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>490</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>490</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN3" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AO3" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.78</v>
+        <v>1.74</v>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.96</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>1.76</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>2.36</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>1.35</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>1.55</v>
+        <v>2.34</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
         <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AI4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM4" t="n">
         <v>55</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>120</v>
-      </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>38</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,260 +1058,125 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.35</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.55</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>2.24</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>22</v>
-      </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pacos Ferreira</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO6" t="n">
         <v>160</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,546 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>14:30:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>German Bundesliga</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Union Berlin</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>470</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pacos Ferreira</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>160</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,141 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Club Olimpia</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>390</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
